--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Col14a1-Cd44.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Col14a1-Cd44.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,10 +76,19 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
     <t>M2</t>
+  </si>
+  <si>
+    <t>Neutro</t>
   </si>
   <si>
     <t>sCs</t>
@@ -89,15 +98,6 @@
   </si>
   <si>
     <t>Cd44</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>M1</t>
-  </si>
-  <si>
-    <t>Neutro</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T19"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>61.7237957084532</v>
+        <v>0.3947990000000001</v>
       </c>
       <c r="H2">
-        <v>61.7237957084532</v>
+        <v>1.184397</v>
       </c>
       <c r="I2">
-        <v>0.9803808194024121</v>
+        <v>0.006038660310945298</v>
       </c>
       <c r="J2">
-        <v>0.9803808194024121</v>
+        <v>0.006038660310945297</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>8.27821416682553</v>
+        <v>10.45505566666667</v>
       </c>
       <c r="N2">
-        <v>8.27821416682553</v>
+        <v>31.365167</v>
       </c>
       <c r="O2">
-        <v>0.007064973537541828</v>
+        <v>0.008202258778219224</v>
       </c>
       <c r="P2">
-        <v>0.007064973537541828</v>
+        <v>0.008202258778219226</v>
       </c>
       <c r="Q2">
-        <v>510.9628000639621</v>
+        <v>4.127645522144334</v>
       </c>
       <c r="R2">
-        <v>510.9628000639621</v>
+        <v>37.148809699299</v>
       </c>
       <c r="S2">
-        <v>0.006926364545791616</v>
+        <v>4.953065454413509E-05</v>
       </c>
       <c r="T2">
-        <v>0.006926364545791616</v>
+        <v>4.95306545441351E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>61.7237957084532</v>
+        <v>0.3947990000000001</v>
       </c>
       <c r="H3">
-        <v>61.7237957084532</v>
+        <v>1.184397</v>
       </c>
       <c r="I3">
-        <v>0.9803808194024121</v>
+        <v>0.006038660310945298</v>
       </c>
       <c r="J3">
-        <v>0.9803808194024121</v>
+        <v>0.006038660310945297</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>164.108091289101</v>
+        <v>167.4277343333333</v>
       </c>
       <c r="N3">
-        <v>164.108091289101</v>
+        <v>502.283203</v>
       </c>
       <c r="O3">
-        <v>0.1400566956699796</v>
+        <v>0.1313513430666197</v>
       </c>
       <c r="P3">
-        <v>0.1400566956699796</v>
+        <v>0.1313513430666197</v>
       </c>
       <c r="Q3">
-        <v>10129.37430083266</v>
+        <v>66.10030208706569</v>
       </c>
       <c r="R3">
-        <v>10129.37430083266</v>
+        <v>594.9027187835911</v>
       </c>
       <c r="S3">
-        <v>0.1373088980637289</v>
+        <v>0.0007931861421657561</v>
       </c>
       <c r="T3">
-        <v>0.1373088980637289</v>
+        <v>0.0007931861421657561</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>61.7237957084532</v>
+        <v>0.3947990000000001</v>
       </c>
       <c r="H4">
-        <v>61.7237957084532</v>
+        <v>1.184397</v>
       </c>
       <c r="I4">
-        <v>0.9803808194024121</v>
+        <v>0.006038660310945298</v>
       </c>
       <c r="J4">
-        <v>0.9803808194024121</v>
+        <v>0.006038660310945297</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>151.920568160173</v>
+        <v>227.495678</v>
       </c>
       <c r="N4">
-        <v>151.920568160173</v>
+        <v>682.487034</v>
       </c>
       <c r="O4">
-        <v>0.1296553546731359</v>
+        <v>0.1784761823728629</v>
       </c>
       <c r="P4">
-        <v>0.1296553546731359</v>
+        <v>0.1784761823728629</v>
       </c>
       <c r="Q4">
-        <v>9377.114113030659</v>
+        <v>89.81506617872202</v>
       </c>
       <c r="R4">
-        <v>9377.114113030659</v>
+        <v>808.3355956084981</v>
       </c>
       <c r="S4">
-        <v>0.1271116228543593</v>
+        <v>0.001077757038944042</v>
       </c>
       <c r="T4">
-        <v>0.1271116228543593</v>
+        <v>0.001077757038944042</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>21</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>61.7237957084532</v>
+        <v>0.3947990000000001</v>
       </c>
       <c r="H5">
-        <v>61.7237957084532</v>
+        <v>1.184397</v>
       </c>
       <c r="I5">
-        <v>0.9803808194024121</v>
+        <v>0.006038660310945298</v>
       </c>
       <c r="J5">
-        <v>0.9803808194024121</v>
+        <v>0.006038660310945297</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>145.637165001401</v>
+        <v>147.9815903333333</v>
       </c>
       <c r="N5">
-        <v>145.637165001401</v>
+        <v>443.9447709999999</v>
       </c>
       <c r="O5">
-        <v>0.1242928361216916</v>
+        <v>0.1160953453549051</v>
       </c>
       <c r="P5">
-        <v>0.1242928361216916</v>
+        <v>0.1160953453549051</v>
       </c>
       <c r="Q5">
-        <v>8989.278620104766</v>
+        <v>58.42298388200967</v>
       </c>
       <c r="R5">
-        <v>8989.278620104766</v>
+        <v>525.806854938087</v>
       </c>
       <c r="S5">
-        <v>0.1218543125228337</v>
+        <v>0.0007010603542801529</v>
       </c>
       <c r="T5">
-        <v>0.1218543125228337</v>
+        <v>0.0007010603542801529</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="D6" t="s">
-        <v>27</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>61.7237957084532</v>
+        <v>0.3947990000000001</v>
       </c>
       <c r="H6">
-        <v>61.7237957084532</v>
+        <v>1.184397</v>
       </c>
       <c r="I6">
-        <v>0.9803808194024121</v>
+        <v>0.006038660310945298</v>
       </c>
       <c r="J6">
-        <v>0.9803808194024121</v>
+        <v>0.006038660310945297</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>648.665112207224</v>
+        <v>665.7853396666667</v>
       </c>
       <c r="N6">
-        <v>648.665112207224</v>
+        <v>1997.356019</v>
       </c>
       <c r="O6">
-        <v>0.5535978847751916</v>
+        <v>0.5223256404173379</v>
       </c>
       <c r="P6">
-        <v>0.5535978847751916</v>
+        <v>0.522325640417338</v>
       </c>
       <c r="Q6">
-        <v>40038.07286907957</v>
+        <v>262.8513863150604</v>
       </c>
       <c r="R6">
-        <v>40038.07286907957</v>
+        <v>2365.662476835543</v>
       </c>
       <c r="S6">
-        <v>0.5427367478953444</v>
+        <v>0.003154147114177263</v>
       </c>
       <c r="T6">
-        <v>0.5427367478953444</v>
+        <v>0.003154147114177264</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,61 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>61.7237957084532</v>
+        <v>0.3947990000000001</v>
       </c>
       <c r="H7">
-        <v>61.7237957084532</v>
+        <v>1.184397</v>
       </c>
       <c r="I7">
-        <v>0.9803808194024121</v>
+        <v>0.006038660310945298</v>
       </c>
       <c r="J7">
-        <v>0.9803808194024121</v>
+        <v>0.006038660310945297</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>53.1169883938852</v>
+        <v>55.51027300000001</v>
       </c>
       <c r="N7">
-        <v>53.1169883938852</v>
+        <v>166.530819</v>
       </c>
       <c r="O7">
-        <v>0.04533225522245957</v>
+        <v>0.043549230010055</v>
       </c>
       <c r="P7">
-        <v>0.04533225522245957</v>
+        <v>0.04354923001005501</v>
       </c>
       <c r="Q7">
-        <v>3278.58214027245</v>
+        <v>21.91540027012701</v>
       </c>
       <c r="R7">
-        <v>3278.58214027245</v>
+        <v>197.238602431143</v>
       </c>
       <c r="S7">
-        <v>0.04444287352035418</v>
+        <v>0.000262979006833947</v>
       </c>
       <c r="T7">
-        <v>0.04444287352035418</v>
+        <v>0.000262979006833947</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.436360682607114</v>
+        <v>62.415212</v>
       </c>
       <c r="H8">
-        <v>0.436360682607114</v>
+        <v>187.245636</v>
       </c>
       <c r="I8">
-        <v>0.006930870641689495</v>
+        <v>0.9546738049073999</v>
       </c>
       <c r="J8">
-        <v>0.006930870641689495</v>
+        <v>0.9546738049073998</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>8.27821416682553</v>
+        <v>10.45505566666667</v>
       </c>
       <c r="N8">
-        <v>8.27821416682553</v>
+        <v>31.365167</v>
       </c>
       <c r="O8">
-        <v>0.007064973537541828</v>
+        <v>0.008202258778219224</v>
       </c>
       <c r="P8">
-        <v>0.007064973537541828</v>
+        <v>0.008202258778219226</v>
       </c>
       <c r="Q8">
-        <v>3.61228718460387</v>
+        <v>652.5545159068013</v>
       </c>
       <c r="R8">
-        <v>3.61228718460387</v>
+        <v>5872.990643161212</v>
       </c>
       <c r="S8">
-        <v>4.896641767566183E-05</v>
+        <v>0.007830481596637668</v>
       </c>
       <c r="T8">
-        <v>4.896641767566183E-05</v>
+        <v>0.007830481596637668</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.436360682607114</v>
+        <v>62.415212</v>
       </c>
       <c r="H9">
-        <v>0.436360682607114</v>
+        <v>187.245636</v>
       </c>
       <c r="I9">
-        <v>0.006930870641689495</v>
+        <v>0.9546738049073999</v>
       </c>
       <c r="J9">
-        <v>0.006930870641689495</v>
+        <v>0.9546738049073998</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>164.108091289101</v>
+        <v>167.4277343333333</v>
       </c>
       <c r="N9">
-        <v>164.108091289101</v>
+        <v>502.283203</v>
       </c>
       <c r="O9">
-        <v>0.1400566956699796</v>
+        <v>0.1313513430666197</v>
       </c>
       <c r="P9">
-        <v>0.1400566956699796</v>
+        <v>0.1313513430666197</v>
       </c>
       <c r="Q9">
-        <v>71.6103187362627</v>
+        <v>10450.03753309468</v>
       </c>
       <c r="R9">
-        <v>71.6103187362627</v>
+        <v>94050.3377978521</v>
       </c>
       <c r="S9">
-        <v>0.000970714840191102</v>
+        <v>0.125397686465107</v>
       </c>
       <c r="T9">
-        <v>0.000970714840191102</v>
+        <v>0.1253976864651071</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.436360682607114</v>
+        <v>62.415212</v>
       </c>
       <c r="H10">
-        <v>0.436360682607114</v>
+        <v>187.245636</v>
       </c>
       <c r="I10">
-        <v>0.006930870641689495</v>
+        <v>0.9546738049073999</v>
       </c>
       <c r="J10">
-        <v>0.006930870641689495</v>
+        <v>0.9546738049073998</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>151.920568160173</v>
+        <v>227.495678</v>
       </c>
       <c r="N10">
-        <v>151.920568160173</v>
+        <v>682.487034</v>
       </c>
       <c r="O10">
-        <v>0.1296553546731359</v>
+        <v>0.1784761823728629</v>
       </c>
       <c r="P10">
-        <v>0.1296553546731359</v>
+        <v>0.1784761823728629</v>
       </c>
       <c r="Q10">
-        <v>66.29216282443367</v>
+        <v>14199.19097145374</v>
       </c>
       <c r="R10">
-        <v>66.29216282443367</v>
+        <v>127792.7187430836</v>
       </c>
       <c r="S10">
-        <v>0.0008986244912418761</v>
+        <v>0.1703865361112481</v>
       </c>
       <c r="T10">
-        <v>0.0008986244912418761</v>
+        <v>0.1703865361112481</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,61 +1086,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
         <v>23</v>
       </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" t="s">
-        <v>21</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.436360682607114</v>
+        <v>62.415212</v>
       </c>
       <c r="H11">
-        <v>0.436360682607114</v>
+        <v>187.245636</v>
       </c>
       <c r="I11">
-        <v>0.006930870641689495</v>
+        <v>0.9546738049073999</v>
       </c>
       <c r="J11">
-        <v>0.006930870641689495</v>
+        <v>0.9546738049073998</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>145.637165001401</v>
+        <v>147.9815903333333</v>
       </c>
       <c r="N11">
-        <v>145.637165001401</v>
+        <v>443.9447709999999</v>
       </c>
       <c r="O11">
-        <v>0.1242928361216916</v>
+        <v>0.1160953453549051</v>
       </c>
       <c r="P11">
-        <v>0.1242928361216916</v>
+        <v>0.1160953453549051</v>
       </c>
       <c r="Q11">
-        <v>63.55033273297624</v>
+        <v>9236.30233275215</v>
       </c>
       <c r="R11">
-        <v>63.55033273297624</v>
+        <v>83126.72099476935</v>
       </c>
       <c r="S11">
-        <v>0.0008614575688481556</v>
+        <v>0.1108331850820059</v>
       </c>
       <c r="T11">
-        <v>0.0008614575688481556</v>
+        <v>0.1108331850820059</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,61 +1148,61 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
         <v>24</v>
       </c>
-      <c r="D12" t="s">
-        <v>27</v>
-      </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.436360682607114</v>
+        <v>62.415212</v>
       </c>
       <c r="H12">
-        <v>0.436360682607114</v>
+        <v>187.245636</v>
       </c>
       <c r="I12">
-        <v>0.006930870641689495</v>
+        <v>0.9546738049073999</v>
       </c>
       <c r="J12">
-        <v>0.006930870641689495</v>
+        <v>0.9546738049073998</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>648.665112207224</v>
+        <v>665.7853396666667</v>
       </c>
       <c r="N12">
-        <v>648.665112207224</v>
+        <v>1997.356019</v>
       </c>
       <c r="O12">
-        <v>0.5535978847751916</v>
+        <v>0.5223256404173379</v>
       </c>
       <c r="P12">
-        <v>0.5535978847751916</v>
+        <v>0.522325640417338</v>
       </c>
       <c r="Q12">
-        <v>283.0519511461645</v>
+        <v>41555.13312178701</v>
       </c>
       <c r="R12">
-        <v>283.0519511461645</v>
+        <v>373996.1980960831</v>
       </c>
       <c r="S12">
-        <v>0.003836915326889779</v>
+        <v>0.4986506065379143</v>
       </c>
       <c r="T12">
-        <v>0.003836915326889779</v>
+        <v>0.4986506065379144</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,61 +1210,61 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.436360682607114</v>
+        <v>62.415212</v>
       </c>
       <c r="H13">
-        <v>0.436360682607114</v>
+        <v>187.245636</v>
       </c>
       <c r="I13">
-        <v>0.006930870641689495</v>
+        <v>0.9546738049073999</v>
       </c>
       <c r="J13">
-        <v>0.006930870641689495</v>
+        <v>0.9546738049073998</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>53.1169883938852</v>
+        <v>55.51027300000001</v>
       </c>
       <c r="N13">
-        <v>53.1169883938852</v>
+        <v>166.530819</v>
       </c>
       <c r="O13">
-        <v>0.04533225522245957</v>
+        <v>0.043549230010055</v>
       </c>
       <c r="P13">
-        <v>0.04533225522245957</v>
+        <v>0.04354923001005501</v>
       </c>
       <c r="Q13">
-        <v>23.1781653135899</v>
+        <v>3464.685457472876</v>
       </c>
       <c r="R13">
-        <v>23.1781653135899</v>
+        <v>31182.16911725588</v>
       </c>
       <c r="S13">
-        <v>0.0003141919968429203</v>
+        <v>0.04157530911448674</v>
       </c>
       <c r="T13">
-        <v>0.0003141919968429203</v>
+        <v>0.04157530911448674</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,61 +1272,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.798843302626817</v>
+        <v>0.3317313333333333</v>
       </c>
       <c r="H14">
-        <v>0.798843302626817</v>
+        <v>0.995194</v>
       </c>
       <c r="I14">
-        <v>0.01268830995589844</v>
+        <v>0.005074006865511221</v>
       </c>
       <c r="J14">
-        <v>0.01268830995589844</v>
+        <v>0.005074006865511221</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>8.27821416682553</v>
+        <v>10.45505566666667</v>
       </c>
       <c r="N14">
-        <v>8.27821416682553</v>
+        <v>31.365167</v>
       </c>
       <c r="O14">
-        <v>0.007064973537541828</v>
+        <v>0.008202258778219224</v>
       </c>
       <c r="P14">
-        <v>0.007064973537541828</v>
+        <v>0.008202258778219226</v>
       </c>
       <c r="Q14">
-        <v>6.61299594487901</v>
+        <v>3.468269556377555</v>
       </c>
       <c r="R14">
-        <v>6.61299594487901</v>
+        <v>31.214426007398</v>
       </c>
       <c r="S14">
-        <v>8.964257407455096E-05</v>
+        <v>4.161831735338402E-05</v>
       </c>
       <c r="T14">
-        <v>8.964257407455096E-05</v>
+        <v>4.161831735338403E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,61 +1334,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.798843302626817</v>
+        <v>0.3317313333333333</v>
       </c>
       <c r="H15">
-        <v>0.798843302626817</v>
+        <v>0.995194</v>
       </c>
       <c r="I15">
-        <v>0.01268830995589844</v>
+        <v>0.005074006865511221</v>
       </c>
       <c r="J15">
-        <v>0.01268830995589844</v>
+        <v>0.005074006865511221</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>164.108091289101</v>
+        <v>167.4277343333333</v>
       </c>
       <c r="N15">
-        <v>164.108091289101</v>
+        <v>502.283203</v>
       </c>
       <c r="O15">
-        <v>0.1400566956699796</v>
+        <v>0.1313513430666197</v>
       </c>
       <c r="P15">
-        <v>0.1400566956699796</v>
+        <v>0.1313513430666197</v>
       </c>
       <c r="Q15">
-        <v>131.0966496331686</v>
+        <v>55.54102554737578</v>
       </c>
       <c r="R15">
-        <v>131.0966496331686</v>
+        <v>499.869229926382</v>
       </c>
       <c r="S15">
-        <v>0.00177708276605964</v>
+        <v>0.000666477616514148</v>
       </c>
       <c r="T15">
-        <v>0.00177708276605964</v>
+        <v>0.0006664776165141482</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,61 +1396,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.798843302626817</v>
+        <v>0.3317313333333333</v>
       </c>
       <c r="H16">
-        <v>0.798843302626817</v>
+        <v>0.995194</v>
       </c>
       <c r="I16">
-        <v>0.01268830995589844</v>
+        <v>0.005074006865511221</v>
       </c>
       <c r="J16">
-        <v>0.01268830995589844</v>
+        <v>0.005074006865511221</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>151.920568160173</v>
+        <v>227.495678</v>
       </c>
       <c r="N16">
-        <v>151.920568160173</v>
+        <v>682.487034</v>
       </c>
       <c r="O16">
-        <v>0.1296553546731359</v>
+        <v>0.1784761823728629</v>
       </c>
       <c r="P16">
-        <v>0.1296553546731359</v>
+        <v>0.1784761823728629</v>
       </c>
       <c r="Q16">
-        <v>121.3607284060151</v>
+        <v>75.46744459051067</v>
       </c>
       <c r="R16">
-        <v>121.3607284060151</v>
+        <v>679.207001314596</v>
       </c>
       <c r="S16">
-        <v>0.001645107327534692</v>
+        <v>0.0009055893746901392</v>
       </c>
       <c r="T16">
-        <v>0.001645107327534692</v>
+        <v>0.0009055893746901393</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,61 +1458,61 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
         <v>23</v>
       </c>
-      <c r="C17" t="s">
-        <v>24</v>
-      </c>
-      <c r="D17" t="s">
-        <v>21</v>
-      </c>
       <c r="E17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>0.798843302626817</v>
+        <v>0.3317313333333333</v>
       </c>
       <c r="H17">
-        <v>0.798843302626817</v>
+        <v>0.995194</v>
       </c>
       <c r="I17">
-        <v>0.01268830995589844</v>
+        <v>0.005074006865511221</v>
       </c>
       <c r="J17">
-        <v>0.01268830995589844</v>
+        <v>0.005074006865511221</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>145.637165001401</v>
+        <v>147.9815903333333</v>
       </c>
       <c r="N17">
-        <v>145.637165001401</v>
+        <v>443.9447709999999</v>
       </c>
       <c r="O17">
-        <v>0.1242928361216916</v>
+        <v>0.1160953453549051</v>
       </c>
       <c r="P17">
-        <v>0.1242928361216916</v>
+        <v>0.1160953453549051</v>
       </c>
       <c r="Q17">
-        <v>116.3412738749259</v>
+        <v>49.09013027006377</v>
       </c>
       <c r="R17">
-        <v>116.3412738749259</v>
+        <v>441.8111724305739</v>
       </c>
       <c r="S17">
-        <v>0.001577066030009712</v>
+        <v>0.0005890685793846846</v>
       </c>
       <c r="T17">
-        <v>0.001577066030009712</v>
+        <v>0.0005890685793846848</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,61 +1520,61 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
         <v>24</v>
       </c>
-      <c r="D18" t="s">
-        <v>27</v>
-      </c>
       <c r="E18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G18">
-        <v>0.798843302626817</v>
+        <v>0.3317313333333333</v>
       </c>
       <c r="H18">
-        <v>0.798843302626817</v>
+        <v>0.995194</v>
       </c>
       <c r="I18">
-        <v>0.01268830995589844</v>
+        <v>0.005074006865511221</v>
       </c>
       <c r="J18">
-        <v>0.01268830995589844</v>
+        <v>0.005074006865511221</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>648.665112207224</v>
+        <v>665.7853396666667</v>
       </c>
       <c r="N18">
-        <v>648.665112207224</v>
+        <v>1997.356019</v>
       </c>
       <c r="O18">
-        <v>0.5535978847751916</v>
+        <v>0.5223256404173379</v>
       </c>
       <c r="P18">
-        <v>0.5535978847751916</v>
+        <v>0.522325640417338</v>
       </c>
       <c r="Q18">
-        <v>518.1817805344136</v>
+        <v>220.8618584414096</v>
       </c>
       <c r="R18">
-        <v>518.1817805344136</v>
+        <v>1987.756725972686</v>
       </c>
       <c r="S18">
-        <v>0.007024221552957378</v>
+        <v>0.002650283885510117</v>
       </c>
       <c r="T18">
-        <v>0.007024221552957378</v>
+        <v>0.002650283885510118</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,61 +1582,1177 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>25</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G19">
+        <v>0.3317313333333333</v>
+      </c>
+      <c r="H19">
+        <v>0.995194</v>
+      </c>
+      <c r="I19">
+        <v>0.005074006865511221</v>
+      </c>
+      <c r="J19">
+        <v>0.005074006865511221</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>55.51027300000001</v>
+      </c>
+      <c r="N19">
+        <v>166.530819</v>
+      </c>
+      <c r="O19">
+        <v>0.043549230010055</v>
+      </c>
+      <c r="P19">
+        <v>0.04354923001005501</v>
+      </c>
+      <c r="Q19">
+        <v>18.41449687598734</v>
+      </c>
+      <c r="R19">
+        <v>165.730471883886</v>
+      </c>
+      <c r="S19">
+        <v>0.0002209690920587463</v>
+      </c>
+      <c r="T19">
+        <v>0.0002209690920587464</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
         <v>23</v>
       </c>
-      <c r="C19" t="s">
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>0.590378</v>
+      </c>
+      <c r="H20">
+        <v>1.771134</v>
+      </c>
+      <c r="I20">
+        <v>0.009030144952381495</v>
+      </c>
+      <c r="J20">
+        <v>0.009030144952381495</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>10.45505566666667</v>
+      </c>
+      <c r="N20">
+        <v>31.365167</v>
+      </c>
+      <c r="O20">
+        <v>0.008202258778219224</v>
+      </c>
+      <c r="P20">
+        <v>0.008202258778219226</v>
+      </c>
+      <c r="Q20">
+        <v>6.172434854375333</v>
+      </c>
+      <c r="R20">
+        <v>55.551913689378</v>
+      </c>
+      <c r="S20">
+        <v>7.406758570426313E-05</v>
+      </c>
+      <c r="T20">
+        <v>7.406758570426315E-05</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>0.590378</v>
+      </c>
+      <c r="H21">
+        <v>1.771134</v>
+      </c>
+      <c r="I21">
+        <v>0.009030144952381495</v>
+      </c>
+      <c r="J21">
+        <v>0.009030144952381495</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>167.4277343333333</v>
+      </c>
+      <c r="N21">
+        <v>502.283203</v>
+      </c>
+      <c r="O21">
+        <v>0.1313513430666197</v>
+      </c>
+      <c r="P21">
+        <v>0.1313513430666197</v>
+      </c>
+      <c r="Q21">
+        <v>98.84565094024467</v>
+      </c>
+      <c r="R21">
+        <v>889.610858462202</v>
+      </c>
+      <c r="S21">
+        <v>0.001186121667581566</v>
+      </c>
+      <c r="T21">
+        <v>0.001186121667581566</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>0.590378</v>
+      </c>
+      <c r="H22">
+        <v>1.771134</v>
+      </c>
+      <c r="I22">
+        <v>0.009030144952381495</v>
+      </c>
+      <c r="J22">
+        <v>0.009030144952381495</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>227.495678</v>
+      </c>
+      <c r="N22">
+        <v>682.487034</v>
+      </c>
+      <c r="O22">
+        <v>0.1784761823728629</v>
+      </c>
+      <c r="P22">
+        <v>0.1784761823728629</v>
+      </c>
+      <c r="Q22">
+        <v>134.308443386284</v>
+      </c>
+      <c r="R22">
+        <v>1208.775990476556</v>
+      </c>
+      <c r="S22">
+        <v>0.001611665797374627</v>
+      </c>
+      <c r="T22">
+        <v>0.001611665797374627</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>23</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>0.590378</v>
+      </c>
+      <c r="H23">
+        <v>1.771134</v>
+      </c>
+      <c r="I23">
+        <v>0.009030144952381495</v>
+      </c>
+      <c r="J23">
+        <v>0.009030144952381495</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>147.9815903333333</v>
+      </c>
+      <c r="N23">
+        <v>443.9447709999999</v>
+      </c>
+      <c r="O23">
+        <v>0.1160953453549051</v>
+      </c>
+      <c r="P23">
+        <v>0.1160953453549051</v>
+      </c>
+      <c r="Q23">
+        <v>87.36507533781266</v>
+      </c>
+      <c r="R23">
+        <v>786.2856780403139</v>
+      </c>
+      <c r="S23">
+        <v>0.001048357796851583</v>
+      </c>
+      <c r="T23">
+        <v>0.001048357796851583</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
         <v>24</v>
       </c>
-      <c r="D19" t="s">
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>0.590378</v>
+      </c>
+      <c r="H24">
+        <v>1.771134</v>
+      </c>
+      <c r="I24">
+        <v>0.009030144952381495</v>
+      </c>
+      <c r="J24">
+        <v>0.009030144952381495</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>665.7853396666667</v>
+      </c>
+      <c r="N24">
+        <v>1997.356019</v>
+      </c>
+      <c r="O24">
+        <v>0.5223256404173379</v>
+      </c>
+      <c r="P24">
+        <v>0.522325640417338</v>
+      </c>
+      <c r="Q24">
+        <v>393.0650172617273</v>
+      </c>
+      <c r="R24">
+        <v>3537.585155355546</v>
+      </c>
+      <c r="S24">
+        <v>0.004716676245314055</v>
+      </c>
+      <c r="T24">
+        <v>0.004716676245314057</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>0.590378</v>
+      </c>
+      <c r="H25">
+        <v>1.771134</v>
+      </c>
+      <c r="I25">
+        <v>0.009030144952381495</v>
+      </c>
+      <c r="J25">
+        <v>0.009030144952381495</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>55.51027300000001</v>
+      </c>
+      <c r="N25">
+        <v>166.530819</v>
+      </c>
+      <c r="O25">
+        <v>0.043549230010055</v>
+      </c>
+      <c r="P25">
+        <v>0.04354923001005501</v>
+      </c>
+      <c r="Q25">
+        <v>32.772043953194</v>
+      </c>
+      <c r="R25">
+        <v>294.948395578746</v>
+      </c>
+      <c r="S25">
+        <v>0.0003932558595553989</v>
+      </c>
+      <c r="T25">
+        <v>0.0003932558595553989</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G26">
+        <v>0.07527233333333333</v>
+      </c>
+      <c r="H26">
+        <v>0.225817</v>
+      </c>
+      <c r="I26">
+        <v>0.001151330301779499</v>
+      </c>
+      <c r="J26">
+        <v>0.001151330301779499</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>10.45505566666667</v>
+      </c>
+      <c r="N26">
+        <v>31.365167</v>
+      </c>
+      <c r="O26">
+        <v>0.008202258778219224</v>
+      </c>
+      <c r="P26">
+        <v>0.008202258778219226</v>
+      </c>
+      <c r="Q26">
+        <v>0.7869764351598888</v>
+      </c>
+      <c r="R26">
+        <v>7.082787916439</v>
+      </c>
+      <c r="S26">
+        <v>9.443509074400687E-06</v>
+      </c>
+      <c r="T26">
+        <v>9.443509074400691E-06</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G27">
+        <v>0.07527233333333333</v>
+      </c>
+      <c r="H27">
+        <v>0.225817</v>
+      </c>
+      <c r="I27">
+        <v>0.001151330301779499</v>
+      </c>
+      <c r="J27">
+        <v>0.001151330301779499</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>167.4277343333333</v>
+      </c>
+      <c r="N27">
+        <v>502.283203</v>
+      </c>
+      <c r="O27">
+        <v>0.1313513430666197</v>
+      </c>
+      <c r="P27">
+        <v>0.1313513430666197</v>
+      </c>
+      <c r="Q27">
+        <v>12.60267622798344</v>
+      </c>
+      <c r="R27">
+        <v>113.424086051851</v>
+      </c>
+      <c r="S27">
+        <v>0.0001512287814520338</v>
+      </c>
+      <c r="T27">
+        <v>0.0001512287814520339</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
         <v>22</v>
       </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19">
-        <v>0.798843302626817</v>
-      </c>
-      <c r="H19">
-        <v>0.798843302626817</v>
-      </c>
-      <c r="I19">
-        <v>0.01268830995589844</v>
-      </c>
-      <c r="J19">
-        <v>0.01268830995589844</v>
-      </c>
-      <c r="K19">
-        <v>1</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="M19">
-        <v>53.1169883938852</v>
-      </c>
-      <c r="N19">
-        <v>53.1169883938852</v>
-      </c>
-      <c r="O19">
-        <v>0.04533225522245957</v>
-      </c>
-      <c r="P19">
-        <v>0.04533225522245957</v>
-      </c>
-      <c r="Q19">
-        <v>42.43215043416156</v>
-      </c>
-      <c r="R19">
-        <v>42.43215043416156</v>
-      </c>
-      <c r="S19">
-        <v>0.0005751897052624625</v>
-      </c>
-      <c r="T19">
-        <v>0.0005751897052624625</v>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G28">
+        <v>0.07527233333333333</v>
+      </c>
+      <c r="H28">
+        <v>0.225817</v>
+      </c>
+      <c r="I28">
+        <v>0.001151330301779499</v>
+      </c>
+      <c r="J28">
+        <v>0.001151330301779499</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>227.495678</v>
+      </c>
+      <c r="N28">
+        <v>682.487034</v>
+      </c>
+      <c r="O28">
+        <v>0.1784761823728629</v>
+      </c>
+      <c r="P28">
+        <v>0.1784761823728629</v>
+      </c>
+      <c r="Q28">
+        <v>17.12413050630867</v>
+      </c>
+      <c r="R28">
+        <v>154.117174556778</v>
+      </c>
+      <c r="S28">
+        <v>0.0002054850369118012</v>
+      </c>
+      <c r="T28">
+        <v>0.0002054850369118013</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G29">
+        <v>0.07527233333333333</v>
+      </c>
+      <c r="H29">
+        <v>0.225817</v>
+      </c>
+      <c r="I29">
+        <v>0.001151330301779499</v>
+      </c>
+      <c r="J29">
+        <v>0.001151330301779499</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>147.9815903333333</v>
+      </c>
+      <c r="N29">
+        <v>443.9447709999999</v>
+      </c>
+      <c r="O29">
+        <v>0.1160953453549051</v>
+      </c>
+      <c r="P29">
+        <v>0.1160953453549051</v>
+      </c>
+      <c r="Q29">
+        <v>11.13891959476744</v>
+      </c>
+      <c r="R29">
+        <v>100.250276352907</v>
+      </c>
+      <c r="S29">
+        <v>0.0001336640890026581</v>
+      </c>
+      <c r="T29">
+        <v>0.0001336640890026581</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G30">
+        <v>0.07527233333333333</v>
+      </c>
+      <c r="H30">
+        <v>0.225817</v>
+      </c>
+      <c r="I30">
+        <v>0.001151330301779499</v>
+      </c>
+      <c r="J30">
+        <v>0.001151330301779499</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>665.7853396666667</v>
+      </c>
+      <c r="N30">
+        <v>1997.356019</v>
+      </c>
+      <c r="O30">
+        <v>0.5223256404173379</v>
+      </c>
+      <c r="P30">
+        <v>0.522325640417338</v>
+      </c>
+      <c r="Q30">
+        <v>50.11521601583589</v>
+      </c>
+      <c r="R30">
+        <v>451.036944142523</v>
+      </c>
+      <c r="S30">
+        <v>0.0006013693372088639</v>
+      </c>
+      <c r="T30">
+        <v>0.0006013693372088641</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G31">
+        <v>0.07527233333333333</v>
+      </c>
+      <c r="H31">
+        <v>0.225817</v>
+      </c>
+      <c r="I31">
+        <v>0.001151330301779499</v>
+      </c>
+      <c r="J31">
+        <v>0.001151330301779499</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>55.51027300000001</v>
+      </c>
+      <c r="N31">
+        <v>166.530819</v>
+      </c>
+      <c r="O31">
+        <v>0.043549230010055</v>
+      </c>
+      <c r="P31">
+        <v>0.04354923001005501</v>
+      </c>
+      <c r="Q31">
+        <v>4.178387772680334</v>
+      </c>
+      <c r="R31">
+        <v>37.605489954123</v>
+      </c>
+      <c r="S31">
+        <v>5.013954812974146E-05</v>
+      </c>
+      <c r="T31">
+        <v>5.013954812974147E-05</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>3</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>1.571181333333333</v>
+      </c>
+      <c r="H32">
+        <v>4.713544</v>
+      </c>
+      <c r="I32">
+        <v>0.02403205266198271</v>
+      </c>
+      <c r="J32">
+        <v>0.02403205266198271</v>
+      </c>
+      <c r="K32">
+        <v>3</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>10.45505566666667</v>
+      </c>
+      <c r="N32">
+        <v>31.365167</v>
+      </c>
+      <c r="O32">
+        <v>0.008202258778219224</v>
+      </c>
+      <c r="P32">
+        <v>0.008202258778219226</v>
+      </c>
+      <c r="Q32">
+        <v>16.42678830242756</v>
+      </c>
+      <c r="R32">
+        <v>147.841094721848</v>
+      </c>
+      <c r="S32">
+        <v>0.0001971171149053743</v>
+      </c>
+      <c r="T32">
+        <v>0.0001971171149053743</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>3</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>1.571181333333333</v>
+      </c>
+      <c r="H33">
+        <v>4.713544</v>
+      </c>
+      <c r="I33">
+        <v>0.02403205266198271</v>
+      </c>
+      <c r="J33">
+        <v>0.02403205266198271</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>167.4277343333333</v>
+      </c>
+      <c r="N33">
+        <v>502.283203</v>
+      </c>
+      <c r="O33">
+        <v>0.1313513430666197</v>
+      </c>
+      <c r="P33">
+        <v>0.1313513430666197</v>
+      </c>
+      <c r="Q33">
+        <v>263.0593308668258</v>
+      </c>
+      <c r="R33">
+        <v>2367.533977801432</v>
+      </c>
+      <c r="S33">
+        <v>0.003156642393799162</v>
+      </c>
+      <c r="T33">
+        <v>0.003156642393799162</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>3</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>1.571181333333333</v>
+      </c>
+      <c r="H34">
+        <v>4.713544</v>
+      </c>
+      <c r="I34">
+        <v>0.02403205266198271</v>
+      </c>
+      <c r="J34">
+        <v>0.02403205266198271</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>227.495678</v>
+      </c>
+      <c r="N34">
+        <v>682.487034</v>
+      </c>
+      <c r="O34">
+        <v>0.1784761823728629</v>
+      </c>
+      <c r="P34">
+        <v>0.1784761823728629</v>
+      </c>
+      <c r="Q34">
+        <v>357.4369626876107</v>
+      </c>
+      <c r="R34">
+        <v>3216.932664188496</v>
+      </c>
+      <c r="S34">
+        <v>0.004289149013694272</v>
+      </c>
+      <c r="T34">
+        <v>0.004289149013694272</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>3</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>1.571181333333333</v>
+      </c>
+      <c r="H35">
+        <v>4.713544</v>
+      </c>
+      <c r="I35">
+        <v>0.02403205266198271</v>
+      </c>
+      <c r="J35">
+        <v>0.02403205266198271</v>
+      </c>
+      <c r="K35">
+        <v>3</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>147.9815903333333</v>
+      </c>
+      <c r="N35">
+        <v>443.9447709999999</v>
+      </c>
+      <c r="O35">
+        <v>0.1160953453549051</v>
+      </c>
+      <c r="P35">
+        <v>0.1160953453549051</v>
+      </c>
+      <c r="Q35">
+        <v>232.5059124087138</v>
+      </c>
+      <c r="R35">
+        <v>2092.553211678424</v>
+      </c>
+      <c r="S35">
+        <v>0.002790009453380149</v>
+      </c>
+      <c r="T35">
+        <v>0.002790009453380149</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>3</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>1.571181333333333</v>
+      </c>
+      <c r="H36">
+        <v>4.713544</v>
+      </c>
+      <c r="I36">
+        <v>0.02403205266198271</v>
+      </c>
+      <c r="J36">
+        <v>0.02403205266198271</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>665.7853396666667</v>
+      </c>
+      <c r="N36">
+        <v>1997.356019</v>
+      </c>
+      <c r="O36">
+        <v>0.5223256404173379</v>
+      </c>
+      <c r="P36">
+        <v>0.522325640417338</v>
+      </c>
+      <c r="Q36">
+        <v>1046.06949769126</v>
+      </c>
+      <c r="R36">
+        <v>9414.625479221335</v>
+      </c>
+      <c r="S36">
+        <v>0.01255255729721331</v>
+      </c>
+      <c r="T36">
+        <v>0.01255255729721331</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>3</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>1.571181333333333</v>
+      </c>
+      <c r="H37">
+        <v>4.713544</v>
+      </c>
+      <c r="I37">
+        <v>0.02403205266198271</v>
+      </c>
+      <c r="J37">
+        <v>0.02403205266198271</v>
+      </c>
+      <c r="K37">
+        <v>3</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>55.51027300000001</v>
+      </c>
+      <c r="N37">
+        <v>166.530819</v>
+      </c>
+      <c r="O37">
+        <v>0.043549230010055</v>
+      </c>
+      <c r="P37">
+        <v>0.04354923001005501</v>
+      </c>
+      <c r="Q37">
+        <v>87.21670474583735</v>
+      </c>
+      <c r="R37">
+        <v>784.950342712536</v>
+      </c>
+      <c r="S37">
+        <v>0.00104657738899044</v>
+      </c>
+      <c r="T37">
+        <v>0.00104657738899044</v>
       </c>
     </row>
   </sheetData>
